--- a/10. Funções Mercado de Trabalho/Funções Mercado de Trabalho - Função SEERRO.xlsx
+++ b/10. Funções Mercado de Trabalho/Funções Mercado de Trabalho - Função SEERRO.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kiko\Documents\Projetos Programação\Especializacao-em-Analise-de-Dados\10. Funções Mercado de Trabalho\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CA2C971-9DC2-43A5-9375-0B89F6581F81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06171916-2963-4696-9E4E-B417B61068FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{3D2557DA-CD0B-48AD-8EFD-8912689B8782}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{3D2557DA-CD0B-48AD-8EFD-8912689B8782}"/>
   </bookViews>
   <sheets>
     <sheet name="SEERRO" sheetId="2" r:id="rId1"/>
@@ -4076,7 +4076,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D19B20CA-2351-4EBE-9519-404D36C01D57}">
   <dimension ref="A1:I208"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
@@ -8269,7 +8269,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29FEF772-DFD0-4036-8B65-DBF82BF00CE4}">
   <dimension ref="B2:M12"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -8451,7 +8453,7 @@
         <v>22</v>
       </c>
       <c r="C11" s="1">
-        <v>935</v>
+        <v>377</v>
       </c>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.3">
@@ -8459,11 +8461,12 @@
         <v>3</v>
       </c>
       <c r="C12" s="2">
-        <v>22529</v>
+        <f>HLOOKUP(C11,C3:J6,4,FALSE)</f>
+        <v>2585</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations disablePrompts="1" count="2">
+  <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8" xr:uid="{7EC37ED9-4858-4A6D-A6B7-E3E6EE305B5F}">
       <formula1>$C$2:$J$2</formula1>
     </dataValidation>
